--- a/AulasAvancado/src/main/resources/br/com/Recursos/Calendário Aulas.xlsx
+++ b/AulasAvancado/src/main/resources/br/com/Recursos/Calendário Aulas.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{96DA1811-24AB-4C6A-A007-4A991307F7C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Aulas" sheetId="1" r:id="rId1"/>
+    <sheet name="Aula 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Aula 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:T24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>Aula</t>
   </si>
@@ -124,14 +126,235 @@
   </si>
   <si>
     <t>Tópico</t>
+  </si>
+  <si>
+    <t>Tema:</t>
+  </si>
+  <si>
+    <t>Relembrando Java EE</t>
+  </si>
+  <si>
+    <t>Assuntos</t>
+  </si>
+  <si>
+    <t>O que é Java EE</t>
+  </si>
+  <si>
+    <t>Containers e Componentes</t>
+  </si>
+  <si>
+    <t>Serviços e especificações Java EE</t>
+  </si>
+  <si>
+    <t>Arquitetura de aplicações Java EE</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>APIS do Java EE</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Registro de serviços</t>
+  </si>
+  <si>
+    <t>Datasources</t>
+  </si>
+  <si>
+    <t>Camada de apresentação web</t>
+  </si>
+  <si>
+    <t>Serviços web</t>
+  </si>
+  <si>
+    <t>Transações</t>
+  </si>
+  <si>
+    <t>Conexões JMS</t>
+  </si>
+  <si>
+    <t>Autenticação e autorização</t>
+  </si>
+  <si>
+    <t>Outros serviços</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>7-</t>
+  </si>
+  <si>
+    <t>Arquitetura Web</t>
+  </si>
+  <si>
+    <t>Aplicações Web (WAR)</t>
+  </si>
+  <si>
+    <t>Configuração</t>
+  </si>
+  <si>
+    <t>Criando um WebServlets</t>
+  </si>
+  <si>
+    <t>Mapeamento do servlet no contexto</t>
+  </si>
+  <si>
+    <t>Configuração de inicialização</t>
+  </si>
+  <si>
+    <t>Requisição</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Parâmetros de requisição</t>
+  </si>
+  <si>
+    <t>Resposta</t>
+  </si>
+  <si>
+    <t>Geração de uma resposta</t>
+  </si>
+  <si>
+    <t>Acesso a componentes da URL</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Inicialização do contexto</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Atributos no escopo de contexto</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Listeners</t>
+  </si>
+  <si>
+    <t>Atributos de sessão</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Tema: Sessões</t>
+  </si>
+  <si>
+    <t>Tema: Contexto</t>
+  </si>
+  <si>
+    <t>Tema: WebServlets</t>
+  </si>
+  <si>
+    <t>Tema: Introdução</t>
+  </si>
+  <si>
+    <t>Validade e duração de uma sessão</t>
+  </si>
+  <si>
+    <t>Tema: Escopos</t>
+  </si>
+  <si>
+    <t>Tema: Cookies</t>
+  </si>
+  <si>
+    <t>Tema: Filtros</t>
+  </si>
+  <si>
+    <t>Tema: JSP</t>
+  </si>
+  <si>
+    <t>JSTL</t>
+  </si>
+  <si>
+    <t>EL (Expression Language)</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,11 +378,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,14 +408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -197,33 +434,39 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Aula" dataDxfId="6"/>
-    <tableColumn id="2" name="Data" dataDxfId="5"/>
-    <tableColumn id="3" name="Tópico" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aula" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tópico" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="F1:F14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="F1:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="F1:F14" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="F1:F14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Plano de aulas:" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Plano de aulas:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -232,7 +475,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,9 +513,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +548,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +600,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,25 +1091,466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AulasAvancado/src/main/resources/br/com/Recursos/Calendário Aulas.xlsx
+++ b/AulasAvancado/src/main/resources/br/com/Recursos/Calendário Aulas.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{96DA1811-24AB-4C6A-A007-4A991307F7C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15915" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Aulas" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Aula 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T24"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
@@ -344,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,22 +450,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C21" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aula" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tópico" dataDxfId="3"/>
+    <tableColumn id="1" name="Aula" dataDxfId="5"/>
+    <tableColumn id="2" name="Data" dataDxfId="4"/>
+    <tableColumn id="3" name="Tópico" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="F1:F14" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="F1:F14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="F1:F14" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="F1:F14"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Plano de aulas:" dataDxfId="0"/>
+    <tableColumn id="1" name="Plano de aulas:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,7 +474,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,9 +512,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,26 +547,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,26 +582,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1086,7 @@
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1230,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/AulasAvancado/src/main/resources/br/com/Recursos/Calendário Aulas.xlsx
+++ b/AulasAvancado/src/main/resources/br/com/Recursos/Calendário Aulas.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15915" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15915" windowHeight="6405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aulas" sheetId="1" r:id="rId1"/>
-    <sheet name="Aula 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Aula 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Aulas 1 - 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Aula 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planos de aula" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:I19"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1:M19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>Aula</t>
   </si>
@@ -338,6 +339,15 @@
   </si>
   <si>
     <t>8.2</t>
+  </si>
+  <si>
+    <t>Falado na primeira aula, resvisar na segunda.</t>
+  </si>
+  <si>
+    <t>(Apis)</t>
+  </si>
+  <si>
+    <t>Observações</t>
   </si>
 </sst>
 </file>
@@ -361,12 +371,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -396,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +443,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,9 +1096,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1068,9 +1107,10 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1080,45 +1120,55 @@
       <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1128,8 +1178,9 @@
       <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>46</v>
@@ -1137,57 +1188,64 @@
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25"/>
+      <c r="D16" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1196,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,9 +1265,10 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1220,35 +1279,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1259,25 +1320,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>71</v>
       </c>
@@ -1286,7 +1347,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -1295,7 +1356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>73</v>
       </c>
@@ -1304,7 +1365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1313,7 +1374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
@@ -1322,7 +1383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
@@ -1331,8 +1392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -1343,7 +1403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
@@ -1352,7 +1412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
@@ -1361,7 +1421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>87</v>
       </c>
@@ -1370,7 +1430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>89</v>
       </c>
@@ -1379,7 +1439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1399,7 +1459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -1408,8 +1468,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1420,8 +1479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1432,8 +1490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -1444,8 +1501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -1456,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
@@ -1465,7 +1521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
@@ -1474,48 +1530,20 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>